--- a/REGULAR/MANIMTIM, JOJIT.xlsx
+++ b/REGULAR/MANIMTIM, JOJIT.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-44REB32\Users\ASUS\Desktop\LEAVECARD\REGULAR\HRMO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFCCE4B-338A-49AA-B310-51C8DDA944B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -23,7 +24,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
   <si>
     <t>PERIOD</t>
   </si>
@@ -399,12 +400,18 @@
   </si>
   <si>
     <t>1/26,27/2023</t>
+  </si>
+  <si>
+    <t>VL(14-0-0)</t>
+  </si>
+  <si>
+    <t>5/1-20/2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -1101,25 +1108,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K151" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
   <tableColumns count="11">
-    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" name="PARTICULARS" dataDxfId="9"/>
-    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICULARS" dataDxfId="9"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -1426,34 +1433,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
   <dimension ref="A2:S237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4050" topLeftCell="A118" activePane="bottomLeft"/>
-      <selection activeCell="F3" sqref="F3:G3"/>
-      <selection pane="bottomLeft" activeCell="A133" sqref="A133"/>
+      <pane ySplit="4056" topLeftCell="A127" activePane="bottomLeft"/>
+      <selection activeCell="B2" sqref="B2:C2"/>
+      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:19" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:19" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
@@ -1478,7 +1485,7 @@
       </c>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
@@ -1502,7 +1509,7 @@
       </c>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:19" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:19" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
@@ -1522,7 +1529,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>18</v>
@@ -1530,7 +1537,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -1543,7 +1550,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -1560,7 +1567,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:19" ht="45" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:19" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -1598,7 +1605,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>23</v>
@@ -1607,7 +1614,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.348000000000013</v>
+        <v>67.598000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1617,12 +1624,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.042</v>
+        <v>130.292</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="52" t="s">
         <v>46</v>
       </c>
@@ -1644,7 +1651,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="45" t="s">
         <v>49</v>
       </c>
@@ -1663,7 +1670,7 @@
       <c r="J11" s="11"/>
       <c r="K11" s="20"/>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="45" t="s">
         <v>50</v>
       </c>
@@ -1683,7 +1690,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="45" t="s">
         <v>51</v>
       </c>
@@ -1703,7 +1710,7 @@
       <c r="J13" s="11"/>
       <c r="K13" s="20"/>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="45" t="s">
         <v>52</v>
       </c>
@@ -1723,7 +1730,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="45" t="s">
         <v>54</v>
       </c>
@@ -1747,7 +1754,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="49" t="s">
         <v>53</v>
       </c>
@@ -1771,7 +1778,7 @@
       <c r="J16" s="12"/>
       <c r="K16" s="15"/>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="45" t="s">
         <v>55</v>
       </c>
@@ -1795,7 +1802,7 @@
       <c r="J17" s="11"/>
       <c r="K17" s="20"/>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="52" t="s">
         <v>48</v>
       </c>
@@ -1813,7 +1820,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="45" t="s">
         <v>56</v>
       </c>
@@ -1837,7 +1844,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="45" t="s">
         <v>57</v>
       </c>
@@ -1861,7 +1868,7 @@
       <c r="J20" s="11"/>
       <c r="K20" s="20"/>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="45" t="s">
         <v>58</v>
       </c>
@@ -1885,7 +1892,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="45" t="s">
         <v>59</v>
       </c>
@@ -1909,7 +1916,7 @@
       <c r="J22" s="11"/>
       <c r="K22" s="20"/>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="45" t="s">
         <v>60</v>
       </c>
@@ -1933,7 +1940,7 @@
       <c r="J23" s="11"/>
       <c r="K23" s="20"/>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="45" t="s">
         <v>98</v>
       </c>
@@ -1957,7 +1964,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="45" t="s">
         <v>50</v>
       </c>
@@ -1977,7 +1984,7 @@
       <c r="J25" s="11"/>
       <c r="K25" s="20"/>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="45" t="s">
         <v>51</v>
       </c>
@@ -1997,7 +2004,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="45" t="s">
         <v>52</v>
       </c>
@@ -2017,7 +2024,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="45" t="s">
         <v>54</v>
       </c>
@@ -2043,7 +2050,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="49" t="s">
         <v>53</v>
       </c>
@@ -2063,7 +2070,7 @@
       <c r="J29" s="11"/>
       <c r="K29" s="20"/>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="45" t="s">
         <v>55</v>
       </c>
@@ -2087,7 +2094,7 @@
       <c r="J30" s="11"/>
       <c r="K30" s="20"/>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="52" t="s">
         <v>61</v>
       </c>
@@ -2105,7 +2112,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="45" t="s">
         <v>56</v>
       </c>
@@ -2129,7 +2136,7 @@
       <c r="J32" s="11"/>
       <c r="K32" s="20"/>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="45" t="s">
         <v>57</v>
       </c>
@@ -2153,7 +2160,7 @@
       <c r="J33" s="11"/>
       <c r="K33" s="20"/>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="45" t="s">
         <v>58</v>
       </c>
@@ -2177,7 +2184,7 @@
       <c r="J34" s="11"/>
       <c r="K34" s="20"/>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="45" t="s">
         <v>59</v>
       </c>
@@ -2197,7 +2204,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="45" t="s">
         <v>60</v>
       </c>
@@ -2221,7 +2228,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="45" t="s">
         <v>98</v>
       </c>
@@ -2245,7 +2252,7 @@
       <c r="J37" s="11"/>
       <c r="K37" s="20"/>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="45" t="s">
         <v>50</v>
       </c>
@@ -2265,7 +2272,7 @@
       <c r="J38" s="11"/>
       <c r="K38" s="20"/>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="45" t="s">
         <v>51</v>
       </c>
@@ -2289,7 +2296,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="45" t="s">
         <v>52</v>
       </c>
@@ -2309,7 +2316,7 @@
       <c r="J40" s="11"/>
       <c r="K40" s="20"/>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="45" t="s">
         <v>54</v>
       </c>
@@ -2333,7 +2340,7 @@
       <c r="J41" s="11"/>
       <c r="K41" s="20"/>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="49" t="s">
         <v>86</v>
       </c>
@@ -2344,7 +2351,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.348000000000013</v>
+        <v>67.598000000000013</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -2354,14 +2361,14 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.042</v>
+        <v>130.292</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="51" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="49" t="s">
         <v>53</v>
       </c>
@@ -2385,7 +2392,7 @@
       <c r="J43" s="11"/>
       <c r="K43" s="20"/>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="45" t="s">
         <v>89</v>
       </c>
@@ -2409,7 +2416,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="45" t="s">
         <v>55</v>
       </c>
@@ -2424,7 +2431,7 @@
       </c>
       <c r="E45" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.348000000000013</v>
+        <v>67.598000000000013</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
@@ -2434,12 +2441,12 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.042</v>
+        <v>130.292</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="45" t="s">
         <v>55</v>
       </c>
@@ -2452,7 +2459,7 @@
       </c>
       <c r="E46" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.348000000000013</v>
+        <v>67.598000000000013</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -2462,12 +2469,12 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.042</v>
+        <v>130.292</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="52" t="s">
         <v>62</v>
       </c>
@@ -2485,7 +2492,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="45" t="s">
         <v>76</v>
       </c>
@@ -2507,7 +2514,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="45" t="s">
         <v>56</v>
       </c>
@@ -2522,7 +2529,7 @@
       </c>
       <c r="E49" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.348000000000013</v>
+        <v>67.598000000000013</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -2532,12 +2539,12 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.042</v>
+        <v>130.292</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="51"/>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="45" t="s">
         <v>57</v>
       </c>
@@ -2561,7 +2568,7 @@
       <c r="J50" s="11"/>
       <c r="K50" s="20"/>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="45" t="s">
         <v>58</v>
       </c>
@@ -2585,7 +2592,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="45" t="s">
         <v>59</v>
       </c>
@@ -2609,7 +2616,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="45" t="s">
         <v>96</v>
       </c>
@@ -2622,7 +2629,7 @@
       </c>
       <c r="E53" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.348000000000013</v>
+        <v>67.598000000000013</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -2632,14 +2639,14 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.042</v>
+        <v>130.292</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="51" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="45" t="s">
         <v>60</v>
       </c>
@@ -2663,7 +2670,7 @@
       <c r="J54" s="11"/>
       <c r="K54" s="20"/>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="45" t="s">
         <v>98</v>
       </c>
@@ -2683,7 +2690,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="45" t="s">
         <v>50</v>
       </c>
@@ -2707,7 +2714,7 @@
       <c r="J56" s="11"/>
       <c r="K56" s="20"/>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="45" t="s">
         <v>51</v>
       </c>
@@ -2731,7 +2738,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="20"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="45" t="s">
         <v>52</v>
       </c>
@@ -2751,7 +2758,7 @@
       <c r="J58" s="11"/>
       <c r="K58" s="20"/>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="45" t="s">
         <v>54</v>
       </c>
@@ -2771,7 +2778,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="49" t="s">
         <v>53</v>
       </c>
@@ -2791,7 +2798,7 @@
       <c r="J60" s="11"/>
       <c r="K60" s="20"/>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="45" t="s">
         <v>55</v>
       </c>
@@ -2815,7 +2822,7 @@
       <c r="J61" s="11"/>
       <c r="K61" s="20"/>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="52" t="s">
         <v>63</v>
       </c>
@@ -2833,7 +2840,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="45" t="s">
         <v>56</v>
       </c>
@@ -2853,7 +2860,7 @@
       <c r="J63" s="11"/>
       <c r="K63" s="20"/>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="45" t="s">
         <v>57</v>
       </c>
@@ -2873,7 +2880,7 @@
       <c r="J64" s="11"/>
       <c r="K64" s="20"/>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="45" t="s">
         <v>58</v>
       </c>
@@ -2893,7 +2900,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="45" t="s">
         <v>59</v>
       </c>
@@ -2913,7 +2920,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="45" t="s">
         <v>60</v>
       </c>
@@ -2933,7 +2940,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="45" t="s">
         <v>98</v>
       </c>
@@ -2953,7 +2960,7 @@
       <c r="J68" s="11"/>
       <c r="K68" s="20"/>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="45" t="s">
         <v>50</v>
       </c>
@@ -2977,7 +2984,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="45" t="s">
         <v>51</v>
       </c>
@@ -3001,7 +3008,7 @@
       <c r="J70" s="11"/>
       <c r="K70" s="20"/>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="45" t="s">
         <v>52</v>
       </c>
@@ -3021,7 +3028,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="45" t="s">
         <v>54</v>
       </c>
@@ -3041,7 +3048,7 @@
       <c r="J72" s="11"/>
       <c r="K72" s="20"/>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="49" t="s">
         <v>53</v>
       </c>
@@ -3061,7 +3068,7 @@
       <c r="J73" s="11"/>
       <c r="K73" s="20"/>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="45" t="s">
         <v>55</v>
       </c>
@@ -3085,7 +3092,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="52" t="s">
         <v>64</v>
       </c>
@@ -3103,7 +3110,7 @@
       <c r="J75" s="11"/>
       <c r="K75" s="20"/>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="45" t="s">
         <v>56</v>
       </c>
@@ -3123,7 +3130,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="45" t="s">
         <v>57</v>
       </c>
@@ -3143,7 +3150,7 @@
       <c r="J77" s="11"/>
       <c r="K77" s="20"/>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="45" t="s">
         <v>58</v>
       </c>
@@ -3167,7 +3174,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="45" t="s">
         <v>59</v>
       </c>
@@ -3193,7 +3200,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="45" t="s">
         <v>60</v>
       </c>
@@ -3213,7 +3220,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="45" t="s">
         <v>98</v>
       </c>
@@ -3233,7 +3240,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="45" t="s">
         <v>50</v>
       </c>
@@ -3253,7 +3260,7 @@
       <c r="J82" s="11"/>
       <c r="K82" s="20"/>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="45" t="s">
         <v>51</v>
       </c>
@@ -3273,7 +3280,7 @@
       <c r="J83" s="11"/>
       <c r="K83" s="20"/>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="45" t="s">
         <v>52</v>
       </c>
@@ -3293,7 +3300,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="45" t="s">
         <v>54</v>
       </c>
@@ -3313,7 +3320,7 @@
       <c r="J85" s="11"/>
       <c r="K85" s="20"/>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="49" t="s">
         <v>53</v>
       </c>
@@ -3333,7 +3340,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="20"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="45" t="s">
         <v>55</v>
       </c>
@@ -3357,7 +3364,7 @@
       <c r="J87" s="11"/>
       <c r="K87" s="20"/>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="52" t="s">
         <v>65</v>
       </c>
@@ -3375,7 +3382,7 @@
       <c r="J88" s="11"/>
       <c r="K88" s="20"/>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="45" t="s">
         <v>56</v>
       </c>
@@ -3395,7 +3402,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="45" t="s">
         <v>57</v>
       </c>
@@ -3415,7 +3422,7 @@
       <c r="J90" s="11"/>
       <c r="K90" s="20"/>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="45" t="s">
         <v>58</v>
       </c>
@@ -3435,7 +3442,7 @@
       <c r="J91" s="11"/>
       <c r="K91" s="20"/>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="45" t="s">
         <v>59</v>
       </c>
@@ -3455,7 +3462,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="45" t="s">
         <v>60</v>
       </c>
@@ -3475,7 +3482,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="45" t="s">
         <v>98</v>
       </c>
@@ -3495,7 +3502,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="45" t="s">
         <v>50</v>
       </c>
@@ -3515,7 +3522,7 @@
       <c r="J95" s="11"/>
       <c r="K95" s="51"/>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="45" t="s">
         <v>51</v>
       </c>
@@ -3535,7 +3542,7 @@
       <c r="J96" s="11"/>
       <c r="K96" s="20"/>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="45" t="s">
         <v>52</v>
       </c>
@@ -3555,7 +3562,7 @@
       <c r="J97" s="11"/>
       <c r="K97" s="20"/>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="45" t="s">
         <v>54</v>
       </c>
@@ -3575,7 +3582,7 @@
       <c r="J98" s="11"/>
       <c r="K98" s="20"/>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="49" t="s">
         <v>53</v>
       </c>
@@ -3595,7 +3602,7 @@
       <c r="J99" s="11"/>
       <c r="K99" s="20"/>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="45" t="s">
         <v>55</v>
       </c>
@@ -3619,7 +3626,7 @@
       <c r="J100" s="11"/>
       <c r="K100" s="20"/>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="52" t="s">
         <v>66</v>
       </c>
@@ -3637,7 +3644,7 @@
       <c r="J101" s="11"/>
       <c r="K101" s="20"/>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="45" t="s">
         <v>56</v>
       </c>
@@ -3657,7 +3664,7 @@
       <c r="J102" s="11"/>
       <c r="K102" s="20"/>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="45" t="s">
         <v>57</v>
       </c>
@@ -3677,7 +3684,7 @@
       <c r="J103" s="11"/>
       <c r="K103" s="20"/>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="45" t="s">
         <v>58</v>
       </c>
@@ -3697,7 +3704,7 @@
       <c r="J104" s="11"/>
       <c r="K104" s="20"/>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="45" t="s">
         <v>59</v>
       </c>
@@ -3717,7 +3724,7 @@
       <c r="J105" s="11"/>
       <c r="K105" s="20"/>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="45" t="s">
         <v>60</v>
       </c>
@@ -3737,7 +3744,7 @@
       <c r="J106" s="11"/>
       <c r="K106" s="20"/>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="45" t="s">
         <v>98</v>
       </c>
@@ -3757,7 +3764,7 @@
       <c r="J107" s="11"/>
       <c r="K107" s="20"/>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="45" t="s">
         <v>50</v>
       </c>
@@ -3781,7 +3788,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="45" t="s">
         <v>51</v>
       </c>
@@ -3801,7 +3808,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="45" t="s">
         <v>52</v>
       </c>
@@ -3821,7 +3828,7 @@
       <c r="J110" s="11"/>
       <c r="K110" s="20"/>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="45" t="s">
         <v>54</v>
       </c>
@@ -3845,7 +3852,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="49" t="s">
         <v>53</v>
       </c>
@@ -3865,7 +3872,7 @@
       <c r="J112" s="11"/>
       <c r="K112" s="20"/>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A113" s="45" t="s">
         <v>55</v>
       </c>
@@ -3889,7 +3896,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A114" s="52" t="s">
         <v>67</v>
       </c>
@@ -3907,7 +3914,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A115" s="45" t="s">
         <v>56</v>
       </c>
@@ -3927,7 +3934,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A116" s="45" t="s">
         <v>57</v>
       </c>
@@ -3947,7 +3954,7 @@
       <c r="J116" s="11"/>
       <c r="K116" s="20"/>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A117" s="45" t="s">
         <v>58</v>
       </c>
@@ -3967,7 +3974,7 @@
       <c r="J117" s="11"/>
       <c r="K117" s="20"/>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A118" s="45" t="s">
         <v>59</v>
       </c>
@@ -3992,7 +3999,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A119" s="45" t="s">
         <v>108</v>
       </c>
@@ -4003,7 +4010,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>80.348000000000013</v>
+        <v>67.598000000000013</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -4013,12 +4020,12 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>129.042</v>
+        <v>130.292</v>
       </c>
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A120" s="45" t="s">
         <v>60</v>
       </c>
@@ -4044,7 +4051,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A121" s="45" t="s">
         <v>98</v>
       </c>
@@ -4064,7 +4071,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A122" s="45" t="s">
         <v>50</v>
       </c>
@@ -4088,7 +4095,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A123" s="45" t="s">
         <v>51</v>
       </c>
@@ -4108,7 +4115,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A124" s="45" t="s">
         <v>52</v>
       </c>
@@ -4128,7 +4135,7 @@
       <c r="J124" s="11"/>
       <c r="K124" s="20"/>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A125" s="45" t="s">
         <v>54</v>
       </c>
@@ -4154,7 +4161,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A126" s="49" t="s">
         <v>53</v>
       </c>
@@ -4174,7 +4181,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A127" s="45" t="s">
         <v>55</v>
       </c>
@@ -4194,7 +4201,7 @@
       <c r="J127" s="11"/>
       <c r="K127" s="20"/>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A128" s="52" t="s">
         <v>117</v>
       </c>
@@ -4212,7 +4219,7 @@
       <c r="J128" s="11"/>
       <c r="K128" s="20"/>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A129" s="45" t="s">
         <v>56</v>
       </c>
@@ -4236,7 +4243,7 @@
         <v>121</v>
       </c>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A130" s="45" t="s">
         <v>57</v>
       </c>
@@ -4262,31 +4269,37 @@
         <v>44971</v>
       </c>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A131" s="45" t="s">
         <v>58</v>
       </c>
       <c r="B131" s="20"/>
-      <c r="C131" s="13"/>
+      <c r="C131" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D131" s="39"/>
       <c r="E131" s="9"/>
       <c r="F131" s="20"/>
-      <c r="G131" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G131" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H131" s="39"/>
       <c r="I131" s="9"/>
       <c r="J131" s="11"/>
       <c r="K131" s="20"/>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A132" s="45" t="s">
         <v>59</v>
       </c>
-      <c r="B132" s="20"/>
+      <c r="B132" s="20" t="s">
+        <v>122</v>
+      </c>
       <c r="C132" s="13"/>
-      <c r="D132" s="39"/>
+      <c r="D132" s="39">
+        <v>14</v>
+      </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
       <c r="G132" s="13" t="str">
@@ -4296,9 +4309,11 @@
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
-      <c r="K132" s="20"/>
-    </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K132" s="20" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A133" s="45"/>
       <c r="B133" s="20"/>
       <c r="C133" s="13"/>
@@ -4311,7 +4326,7 @@
       <c r="J133" s="11"/>
       <c r="K133" s="20"/>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A134" s="45"/>
       <c r="B134" s="20"/>
       <c r="C134" s="13"/>
@@ -4324,7 +4339,7 @@
       <c r="J134" s="11"/>
       <c r="K134" s="20"/>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A135" s="45"/>
       <c r="B135" s="20"/>
       <c r="C135" s="13"/>
@@ -4337,7 +4352,7 @@
       <c r="J135" s="11"/>
       <c r="K135" s="20"/>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A136" s="45"/>
       <c r="B136" s="20"/>
       <c r="C136" s="13"/>
@@ -4350,7 +4365,7 @@
       <c r="J136" s="11"/>
       <c r="K136" s="20"/>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A137" s="45"/>
       <c r="B137" s="20"/>
       <c r="C137" s="13"/>
@@ -4363,7 +4378,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A138" s="45"/>
       <c r="B138" s="20"/>
       <c r="C138" s="13"/>
@@ -4376,7 +4391,7 @@
       <c r="J138" s="11"/>
       <c r="K138" s="20"/>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A139" s="45"/>
       <c r="B139" s="20"/>
       <c r="C139" s="13"/>
@@ -4389,7 +4404,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A140" s="45"/>
       <c r="B140" s="20"/>
       <c r="C140" s="13"/>
@@ -4402,7 +4417,7 @@
       <c r="J140" s="11"/>
       <c r="K140" s="20"/>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A141" s="45"/>
       <c r="B141" s="20"/>
       <c r="C141" s="13"/>
@@ -4415,7 +4430,7 @@
       <c r="J141" s="11"/>
       <c r="K141" s="20"/>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A142" s="45"/>
       <c r="B142" s="20"/>
       <c r="C142" s="13"/>
@@ -4428,7 +4443,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A143" s="45"/>
       <c r="B143" s="20"/>
       <c r="C143" s="13"/>
@@ -4441,7 +4456,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A144" s="45"/>
       <c r="B144" s="20"/>
       <c r="C144" s="13"/>
@@ -4454,7 +4469,7 @@
       <c r="J144" s="11"/>
       <c r="K144" s="20"/>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A145" s="45"/>
       <c r="B145" s="20"/>
       <c r="C145" s="13"/>
@@ -4467,7 +4482,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A146" s="45"/>
       <c r="B146" s="20"/>
       <c r="C146" s="13"/>
@@ -4480,7 +4495,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A147" s="46"/>
       <c r="B147" s="20"/>
       <c r="C147" s="13"/>
@@ -4496,7 +4511,7 @@
       <c r="J147" s="11"/>
       <c r="K147" s="20"/>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A148" s="46"/>
       <c r="B148" s="20"/>
       <c r="C148" s="13"/>
@@ -4512,7 +4527,7 @@
       <c r="J148" s="11"/>
       <c r="K148" s="20"/>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A149" s="46"/>
       <c r="B149" s="20"/>
       <c r="C149" s="13"/>
@@ -4528,7 +4543,7 @@
       <c r="J149" s="11"/>
       <c r="K149" s="20"/>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A150" s="46"/>
       <c r="B150" s="20"/>
       <c r="C150" s="13"/>
@@ -4544,7 +4559,7 @@
       <c r="J150" s="11"/>
       <c r="K150" s="20"/>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A151" s="47"/>
       <c r="B151" s="15"/>
       <c r="C151" s="40"/>
@@ -4560,262 +4575,262 @@
       <c r="J151" s="12"/>
       <c r="K151" s="15"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A152" s="48"/>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A153" s="48"/>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A154" s="48"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A155" s="48"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A156" s="48"/>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A157" s="48"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A158" s="48"/>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A159" s="48"/>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A160" s="48"/>
     </row>
-    <row r="161" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A161" s="48"/>
     </row>
-    <row r="162" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A162" s="48"/>
     </row>
-    <row r="163" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A163" s="48"/>
     </row>
-    <row r="164" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A164" s="48"/>
     </row>
-    <row r="165" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A165" s="48"/>
     </row>
-    <row r="166" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A166" s="48"/>
     </row>
-    <row r="167" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A167" s="48"/>
     </row>
-    <row r="168" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A168" s="48"/>
     </row>
-    <row r="169" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A169" s="48"/>
     </row>
-    <row r="170" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A170" s="48"/>
     </row>
-    <row r="171" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A171" s="48"/>
     </row>
-    <row r="172" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A172" s="48"/>
     </row>
-    <row r="173" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A173" s="48"/>
     </row>
-    <row r="174" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="174" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A174" s="48"/>
     </row>
-    <row r="175" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="175" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A175" s="48"/>
     </row>
-    <row r="176" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="176" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A176" s="48"/>
     </row>
-    <row r="177" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="177" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A177" s="48"/>
     </row>
-    <row r="178" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="178" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A178" s="48"/>
     </row>
-    <row r="179" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="179" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A179" s="48"/>
     </row>
-    <row r="180" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="180" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A180" s="48"/>
     </row>
-    <row r="181" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="181" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A181" s="48"/>
     </row>
-    <row r="182" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="182" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A182" s="48"/>
     </row>
-    <row r="183" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="183" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A183" s="48"/>
     </row>
-    <row r="184" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="184" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A184" s="48"/>
     </row>
-    <row r="185" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="185" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A185" s="48"/>
     </row>
-    <row r="186" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="186" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A186" s="48"/>
     </row>
-    <row r="187" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="187" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A187" s="48"/>
     </row>
-    <row r="188" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="188" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A188" s="48"/>
     </row>
-    <row r="189" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="189" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A189" s="48"/>
     </row>
-    <row r="190" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="190" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A190" s="48"/>
     </row>
-    <row r="191" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="191" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A191" s="48"/>
     </row>
-    <row r="192" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="192" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A192" s="48"/>
     </row>
-    <row r="193" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="193" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A193" s="48"/>
     </row>
-    <row r="194" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="194" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A194" s="48"/>
     </row>
-    <row r="195" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="195" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A195" s="48"/>
     </row>
-    <row r="196" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="196" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A196" s="48"/>
     </row>
-    <row r="197" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="197" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A197" s="48"/>
     </row>
-    <row r="198" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="198" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A198" s="48"/>
     </row>
-    <row r="199" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="199" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A199" s="48"/>
     </row>
-    <row r="200" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="200" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A200" s="48"/>
     </row>
-    <row r="201" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="201" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A201" s="48"/>
     </row>
-    <row r="202" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="202" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A202" s="48"/>
     </row>
-    <row r="203" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="203" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A203" s="48"/>
     </row>
-    <row r="204" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="204" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A204" s="48"/>
     </row>
-    <row r="205" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="205" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A205" s="48"/>
     </row>
-    <row r="206" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="206" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A206" s="48"/>
     </row>
-    <row r="207" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="207" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A207" s="48"/>
     </row>
-    <row r="208" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="208" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A208" s="48"/>
     </row>
-    <row r="209" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="209" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A209" s="48"/>
     </row>
-    <row r="210" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="210" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A210" s="48"/>
     </row>
-    <row r="211" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="211" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A211" s="48"/>
     </row>
-    <row r="212" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="212" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A212" s="48"/>
     </row>
-    <row r="213" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="213" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A213" s="48"/>
     </row>
-    <row r="214" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="214" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A214" s="48"/>
     </row>
-    <row r="215" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="215" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A215" s="48"/>
     </row>
-    <row r="216" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="216" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A216" s="48"/>
     </row>
-    <row r="217" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="217" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A217" s="48"/>
     </row>
-    <row r="218" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="218" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A218" s="48"/>
     </row>
-    <row r="219" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="219" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A219" s="48"/>
     </row>
-    <row r="220" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="220" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A220" s="48"/>
     </row>
-    <row r="221" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="221" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A221" s="48"/>
     </row>
-    <row r="222" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="222" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A222" s="48"/>
     </row>
-    <row r="223" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="223" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A223" s="48"/>
     </row>
-    <row r="224" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="224" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A224" s="48"/>
     </row>
-    <row r="225" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="225" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A225" s="48"/>
     </row>
-    <row r="226" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="226" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A226" s="48"/>
     </row>
-    <row r="227" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="227" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A227" s="48"/>
     </row>
-    <row r="228" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="228" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A228" s="48"/>
     </row>
-    <row r="229" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="229" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A229" s="48"/>
     </row>
-    <row r="230" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="230" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A230" s="48"/>
     </row>
-    <row r="231" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="231" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A231" s="48"/>
     </row>
-    <row r="232" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="232" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A232" s="48"/>
     </row>
-    <row r="233" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="233" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A233" s="48"/>
     </row>
-    <row r="234" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="234" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A234" s="48"/>
     </row>
-    <row r="235" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="235" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A235" s="48"/>
     </row>
-    <row r="236" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="236" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A236" s="48"/>
     </row>
-    <row r="237" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="237" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A237" s="48"/>
     </row>
   </sheetData>
@@ -4833,10 +4848,10 @@
     <mergeCell ref="F4:G4"/>
   </mergeCells>
   <dataValidations disablePrompts="1" count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
       <formula1>"REGULAR, CO-TERMINUS, CONTRACTUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -4859,28 +4874,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="O28" sqref="O28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.28515625" customWidth="1"/>
-    <col min="2" max="2" width="20.7109375" customWidth="1"/>
-    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.140625" customWidth="1"/>
-    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.85546875" customWidth="1"/>
-    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.85546875" customWidth="1"/>
+    <col min="1" max="1" width="21.33203125" customWidth="1"/>
+    <col min="2" max="2" width="20.6640625" customWidth="1"/>
+    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.109375" customWidth="1"/>
+    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.88671875" customWidth="1"/>
+    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="D1" s="62" t="s">
         <v>33</v>
       </c>
@@ -4893,7 +4908,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A2" s="32" t="s">
         <v>24</v>
       </c>
@@ -4922,7 +4937,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A3" s="11"/>
       <c r="B3" s="11"/>
       <c r="D3" s="11"/>
@@ -4944,7 +4959,7 @@
         <v>1.208</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
       <c r="E4" s="1">
         <f>IF(E3=0,0,IF(ISBLANK(E3),"",VLOOKUP(E3,E7:F14,2)))</f>
         <v>0</v>
@@ -4959,10 +4974,10 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4982,7 +4997,7 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C7" s="37">
         <v>1</v>
       </c>
@@ -5008,7 +5023,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -5034,7 +5049,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -5060,7 +5075,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -5086,7 +5101,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -5112,7 +5127,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -5138,7 +5153,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -5164,7 +5179,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -5190,7 +5205,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -5210,7 +5225,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -5230,7 +5245,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -5250,7 +5265,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -5271,7 +5286,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -5292,7 +5307,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -5313,7 +5328,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -5334,7 +5349,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -5355,7 +5370,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -5376,7 +5391,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -5397,7 +5412,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -5418,7 +5433,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -5439,7 +5454,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -5460,7 +5475,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -5481,7 +5496,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -5502,7 +5517,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -5523,7 +5538,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -5544,7 +5559,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -5565,7 +5580,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -5586,7 +5601,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -5607,7 +5622,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -5628,7 +5643,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -5649,7 +5664,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -5670,7 +5685,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -5679,7 +5694,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -5688,7 +5703,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -5697,7 +5712,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -5706,7 +5721,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -5715,7 +5730,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -5724,7 +5739,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -5733,7 +5748,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -5742,7 +5757,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -5751,7 +5766,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -5760,7 +5775,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -5769,7 +5784,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -5778,7 +5793,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -5787,7 +5802,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -5796,7 +5811,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -5805,7 +5820,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -5814,7 +5829,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -5823,7 +5838,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -5832,7 +5847,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -5841,7 +5856,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -5850,7 +5865,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -5859,7 +5874,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -5868,7 +5883,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -5877,7 +5892,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -5886,7 +5901,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -5895,7 +5910,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -5904,7 +5919,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -5913,7 +5928,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -5922,7 +5937,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -5931,7 +5946,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/MANIMTIM, JOJIT.xlsx
+++ b/REGULAR/MANIMTIM, JOJIT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ABFCCE4B-338A-49AA-B310-51C8DDA944B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC8FA04-A9A6-4C66-A7E8-B8AB839538FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -402,10 +402,10 @@
     <t>1/26,27/2023</t>
   </si>
   <si>
-    <t>VL(14-0-0)</t>
-  </si>
-  <si>
     <t>5/1-20/2023</t>
+  </si>
+  <si>
+    <t>VL(10-0-0)</t>
   </si>
 </sst>
 </file>
@@ -1440,9 +1440,9 @@
   <dimension ref="A2:S237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A127" activePane="bottomLeft"/>
+      <pane ySplit="4056" topLeftCell="A124" activePane="bottomLeft"/>
       <selection activeCell="B2" sqref="B2:C2"/>
-      <selection pane="bottomLeft" activeCell="G132" sqref="G132"/>
+      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1614,7 +1614,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.598000000000013</v>
+        <v>71.598000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2351,7 +2351,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.598000000000013</v>
+        <v>71.598000000000013</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -2431,7 +2431,7 @@
       </c>
       <c r="E45" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.598000000000013</v>
+        <v>71.598000000000013</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
@@ -2459,7 +2459,7 @@
       </c>
       <c r="E46" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.598000000000013</v>
+        <v>71.598000000000013</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -2529,7 +2529,7 @@
       </c>
       <c r="E49" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.598000000000013</v>
+        <v>71.598000000000013</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -2629,7 +2629,7 @@
       </c>
       <c r="E53" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.598000000000013</v>
+        <v>71.598000000000013</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -4010,7 +4010,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>67.598000000000013</v>
+        <v>71.598000000000013</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -4294,11 +4294,11 @@
         <v>59</v>
       </c>
       <c r="B132" s="20" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="C132" s="13"/>
       <c r="D132" s="39">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
@@ -4310,7 +4310,7 @@
       <c r="I132" s="9"/>
       <c r="J132" s="11"/>
       <c r="K132" s="20" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">

--- a/REGULAR/MANIMTIM, JOJIT.xlsx
+++ b/REGULAR/MANIMTIM, JOJIT.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDC8FA04-A9A6-4C66-A7E8-B8AB839538FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25880746-60CC-457B-8D25-5AFC145AF84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="247" uniqueCount="125">
   <si>
     <t>PERIOD</t>
   </si>
@@ -406,6 +406,9 @@
   </si>
   <si>
     <t>VL(10-0-0)</t>
+  </si>
+  <si>
+    <t>TOTAL LEAVE</t>
   </si>
 </sst>
 </file>
@@ -1440,8 +1443,8 @@
   <dimension ref="A2:S237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A124" activePane="bottomLeft"/>
-      <selection activeCell="B2" sqref="B2:C2"/>
+      <pane ySplit="4056" topLeftCell="A124"/>
+      <selection activeCell="E9" sqref="E9"/>
       <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
     </sheetView>
   </sheetViews>
@@ -4878,7 +4881,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="O28" sqref="O28"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4978,6 +4981,9 @@
       <c r="J5" s="1"/>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A6" s="2" t="s">
+        <v>124</v>
+      </c>
       <c r="C6" s="38" t="s">
         <v>28</v>
       </c>
@@ -4998,6 +5004,10 @@
       <c r="L6" s="64"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+      <c r="A7" s="9">
+        <f>SUM(Sheet1!E9,Sheet1!I9)</f>
+        <v>201.89000000000001</v>
+      </c>
       <c r="C7" s="37">
         <v>1</v>
       </c>

--- a/REGULAR/MANIMTIM, JOJIT.xlsx
+++ b/REGULAR/MANIMTIM, JOJIT.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25880746-60CC-457B-8D25-5AFC145AF84A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{98F003FB-3A56-42EF-93E8-DE2D3735A3B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1443,9 +1443,9 @@
   <dimension ref="A2:S237"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane ySplit="4056" topLeftCell="A124"/>
+      <pane ySplit="4056" topLeftCell="A127" activePane="bottomLeft"/>
       <selection activeCell="E9" sqref="E9"/>
-      <selection pane="bottomLeft" activeCell="B133" sqref="B133"/>
+      <selection pane="bottomLeft" activeCell="D133" sqref="D133"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1617,7 +1617,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.598000000000013</v>
+        <v>74.098000000000013</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -1627,7 +1627,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.292</v>
+        <v>131.542</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -2354,7 +2354,7 @@
       <c r="D42" s="39"/>
       <c r="E42" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.598000000000013</v>
+        <v>74.098000000000013</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="13" t="str">
@@ -2364,7 +2364,7 @@
       <c r="H42" s="39"/>
       <c r="I42" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.292</v>
+        <v>131.542</v>
       </c>
       <c r="J42" s="11"/>
       <c r="K42" s="51" t="s">
@@ -2434,7 +2434,7 @@
       </c>
       <c r="E45" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.598000000000013</v>
+        <v>74.098000000000013</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="13">
@@ -2444,7 +2444,7 @@
       <c r="H45" s="39"/>
       <c r="I45" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.292</v>
+        <v>131.542</v>
       </c>
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
@@ -2462,7 +2462,7 @@
       </c>
       <c r="E46" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.598000000000013</v>
+        <v>74.098000000000013</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="13" t="str">
@@ -2472,7 +2472,7 @@
       <c r="H46" s="39"/>
       <c r="I46" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.292</v>
+        <v>131.542</v>
       </c>
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
@@ -2532,7 +2532,7 @@
       </c>
       <c r="E49" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.598000000000013</v>
+        <v>74.098000000000013</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="13">
@@ -2542,7 +2542,7 @@
       <c r="H49" s="39"/>
       <c r="I49" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.292</v>
+        <v>131.542</v>
       </c>
       <c r="J49" s="11"/>
       <c r="K49" s="51"/>
@@ -2632,7 +2632,7 @@
       </c>
       <c r="E53" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.598000000000013</v>
+        <v>74.098000000000013</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="13" t="str">
@@ -2642,7 +2642,7 @@
       <c r="H53" s="39"/>
       <c r="I53" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.292</v>
+        <v>131.542</v>
       </c>
       <c r="J53" s="11"/>
       <c r="K53" s="51" t="s">
@@ -4013,7 +4013,7 @@
       <c r="D119" s="39"/>
       <c r="E119" s="9">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>71.598000000000013</v>
+        <v>74.098000000000013</v>
       </c>
       <c r="F119" s="20"/>
       <c r="G119" s="13" t="str">
@@ -4023,7 +4023,7 @@
       <c r="H119" s="39"/>
       <c r="I119" s="9">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>130.292</v>
+        <v>131.542</v>
       </c>
       <c r="J119" s="11"/>
       <c r="K119" s="20"/>
@@ -4299,15 +4299,17 @@
       <c r="B132" s="20" t="s">
         <v>123</v>
       </c>
-      <c r="C132" s="13"/>
+      <c r="C132" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D132" s="39">
         <v>10</v>
       </c>
       <c r="E132" s="9"/>
       <c r="F132" s="20"/>
-      <c r="G132" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G132" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H132" s="39"/>
       <c r="I132" s="9"/>
@@ -4317,9 +4319,13 @@
       </c>
     </row>
     <row r="133" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A133" s="45"/>
+      <c r="A133" s="45">
+        <v>11444</v>
+      </c>
       <c r="B133" s="20"/>
-      <c r="C133" s="13"/>
+      <c r="C133" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D133" s="39"/>
       <c r="E133" s="9"/>
       <c r="F133" s="20"/>
@@ -5006,7 +5012,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" s="9">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>201.89000000000001</v>
+        <v>205.64000000000001</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
